--- a/Data/2003 STOP Summary.xlsx
+++ b/Data/2003 STOP Summary.xlsx
@@ -2148,7 +2148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL21"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,11 +5173,6 @@
       </c>
       <c r="BK15" t="n">
         <v>3758095.63</v>
-      </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>not reconciled</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -6349,7 +6344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8740,11 +8735,6 @@
       <c r="BO11" t="n">
         <v>1557332.44</v>
       </c>
-      <c r="BP11" t="inlineStr">
-        <is>
-          <t>not reconciled</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9565,11 +9555,6 @@
       <c r="BO15" t="n">
         <v>3022335</v>
       </c>
-      <c r="BP15" t="inlineStr">
-        <is>
-          <t>not reconciled</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9979,11 +9964,6 @@
       </c>
       <c r="BO17" t="n">
         <v>3269286</v>
-      </c>
-      <c r="BP17" t="inlineStr">
-        <is>
-          <t>not reconciled</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -17468,7 +17448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
@@ -20997,7 +20977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="L54" activePane="bottomRight" state="frozen"/>
@@ -25962,7 +25942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
@@ -30985,7 +30965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -33742,7 +33722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
@@ -36017,7 +35997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>

--- a/Data/2003 STOP Summary.xlsx
+++ b/Data/2003 STOP Summary.xlsx
@@ -14474,11 +14474,7 @@
       <c r="BU7" t="n">
         <v>5118910</v>
       </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>not reconciled</t>
-        </is>
-      </c>
+      <c r="BV7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17448,7 +17444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
@@ -20815,129 +20811,9 @@
         <v>155119.61</v>
       </c>
     </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="42" t="n"/>
     </row>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="N2:N3"/>
@@ -20977,7 +20853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="L54" activePane="bottomRight" state="frozen"/>
@@ -25773,129 +25649,9 @@
       </c>
       <c r="S78" s="19" t="n"/>
     </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="42" t="n"/>
     </row>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="Q2:Q3"/>
@@ -25942,7 +25698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
@@ -30801,125 +30557,9 @@
         </is>
       </c>
     </row>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
     <row r="89">
       <c r="A89" s="41" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="N2:N3"/>
@@ -30965,7 +30605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -33567,126 +33207,9 @@
     <row r="81">
       <c r="F81" s="19" t="n"/>
     </row>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
     <row r="86">
       <c r="A86" s="41" t="n"/>
     </row>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I2:I3"/>
@@ -33722,7 +33245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
@@ -35853,118 +35376,9 @@
     <row r="89">
       <c r="A89" s="40" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94">
       <c r="A94" s="41" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A56:B57"/>
@@ -35997,7 +35411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
@@ -38076,120 +37490,9 @@
     <row r="87">
       <c r="A87" s="40" t="n"/>
     </row>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
     <row r="92">
       <c r="A92" s="41" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A56:B57"/>
@@ -38222,7 +37525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
@@ -39910,117 +39213,12 @@
     <row r="92">
       <c r="A92" s="40" t="n"/>
     </row>
-    <row r="93"/>
     <row r="94">
       <c r="E94" s="93" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="41" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E2:E3"/>
